--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2332401.594719058</v>
+        <v>2330107.999262465</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.9377227717321</v>
+        <v>56.91750123718776</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.95822197096783</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.2022482902402</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>192.0524966157163</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798627</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89839816356307</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6088074159602</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505729</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>75.35116901583034</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217206</v>
       </c>
       <c r="G13" t="n">
-        <v>121.5943701178326</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444163</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.096900348329655e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.096900348329655e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141463</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>131.2944603446582</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787976629</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.953909778728</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>2377.55374984285</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.241398742976</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>420.5838509848373</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>420.5838509848373</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1618.060010690416</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1421.431262850278</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1198.452782045013</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>909.3344445488508</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263848</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283675</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.5838509848373</v>
+        <v>654.6499563429639</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3021.322732312311</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2767.792255586147</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.729368242576</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624725</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179749</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197306</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>188.339194630123</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1761.351798910839</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1472.248932036482</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.564443830595</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>928.1472737936348</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>700.1577228956174</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.1577228956174</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D13" t="n">
-        <v>653.1541313646961</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E13" t="n">
-        <v>505.241037782303</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="F13" t="n">
-        <v>358.3510902843926</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092274</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>527.7722521572603</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>527.7722521572603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,13 +6075,13 @@
         <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,25 +6461,25 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168641</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362713</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111737</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438171</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297702</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>197.0043242297702</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400648</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812158</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998222</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998222</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797676</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138347</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703046</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-5.794924217776389e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075919</v>
       </c>
       <c r="G13" t="n">
-        <v>43.92976817443621</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>102.889702261794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948094</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.11098998263009</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.712610143165</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.7591651909</v>
       </c>
     </row>
     <row r="15">
@@ -26314,40 +26314,40 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121056</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605467</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768881</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>9947.14432176887</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.14432176887</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768879</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768723</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768803</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.6390247734</v>
+        <v>-729838.6390247738</v>
       </c>
       <c r="C6" t="n">
-        <v>215274.4661315926</v>
+        <v>215274.4661315932</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.2077436987</v>
+        <v>418713.2077436988</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144729</v>
+        <v>168843.0758890375</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218284</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.275621828</v>
+        <v>494255.5376963923</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218279</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="J6" t="n">
-        <v>326685.0978118458</v>
+        <v>326650.3598864099</v>
       </c>
       <c r="K6" t="n">
-        <v>445180.1829157738</v>
+        <v>445145.4449903381</v>
       </c>
       <c r="L6" t="n">
-        <v>494290.2756218284</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="M6" t="n">
-        <v>409235.2476863166</v>
+        <v>409200.5097608808</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218284</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963925</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,16 +26975,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.3002158843215</v>
+        <v>329.3204374188658</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>76.65725104724453</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>83.35532412933341</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>11.86547352390386</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080673</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2392451602649</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3129182374932</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934117</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>144.1977802603388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,19 +29989,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-2.614797267597169e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.096900348329655e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-7.080691976552352e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839432</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430279</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663304</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>232.1537035940578</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676411</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>508.713261862006</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060409</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095842</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>73.18080466315369</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,7 +36443,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,7 +36452,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396441</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>90.01966967203953</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396414</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37637,7 +37637,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37704,7 +37704,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191244</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010452</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
